--- a/mbs-perturbation/greedy/welm/smote/greedy_welm_rbf_smote_results.xlsx
+++ b/mbs-perturbation/greedy/welm/smote/greedy_welm_rbf_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.5120192307692307</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4935064935064935</v>
+        <v>0.5127315617845001</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5086580086580087</v>
+        <v>0.5120192307692307</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.03791469194312796</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4957446808510638</v>
+        <v>0.5457246577876433</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4913419913419914</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4823788546255506</v>
+        <v>0.4822453703703704</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4945770065075922</v>
+        <v>0.5336538461538461</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4824561403508772</v>
+        <v>0.4965984033321763</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5054229934924078</v>
+        <v>0.4543269230769231</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.03017241379310345</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4763948497854077</v>
+        <v>0.5117714580209894</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.502403846153846</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.02388654669278931</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.04529637043826225</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4860962038238786</v>
+        <v>0.5098142902591359</v>
       </c>
     </row>
   </sheetData>
